--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uddie\PycharmProjects\practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D044972-B9D6-41EF-B67A-1F78BE09463E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{099BF765-D16A-48B5-B283-F05979DBD237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
